--- a/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
+++ b/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Beschreibung" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="522">
   <si>
     <t>Titel</t>
   </si>
@@ -889,13 +889,7 @@
     <t>113818653</t>
   </si>
   <si>
-    <t>Dissertation, Ruprecht-Karls-Universität Heidelberg, 2003</t>
-  </si>
-  <si>
     <t>373819870</t>
-  </si>
-  <si>
-    <t>Magisterarbeit, Universität Frankfurt, 2000</t>
   </si>
   <si>
     <t>Interpret</t>
@@ -3878,8 +3872,8 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3896,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3923,12 +3917,12 @@
       <c r="Y1" s="26"/>
       <c r="Z1" s="26"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="101.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3960,7 +3954,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3992,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4146,10 +4140,10 @@
         <v>55</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4276,7 +4270,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="3"/>
@@ -4305,10 +4299,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="26"/>
@@ -4337,10 +4331,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="26"/>
@@ -4369,10 +4363,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="26"/>
@@ -4401,10 +4395,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="26"/>
@@ -4433,10 +4427,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="26"/>
@@ -4591,14 +4585,14 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
@@ -4645,7 +4639,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4664,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -4676,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -4688,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4749,13 +4743,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -4763,10 +4757,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -4775,10 +4769,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4787,10 +4781,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4845,56 +4839,56 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
@@ -4939,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -4951,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -4963,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -5024,13 +5018,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -5084,14 +5078,14 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>274</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>276</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -5131,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -5143,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -5155,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -5167,7 +5161,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5218,13 +5212,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -5281,11 +5275,11 @@
         <v>40</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
@@ -5327,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -5339,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -5351,7 +5345,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -5412,13 +5406,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -5426,10 +5420,10 @@
     </row>
     <row r="10" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -5484,14 +5478,14 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
@@ -5537,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -5549,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -5561,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -5622,13 +5616,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -5636,7 +5630,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>52</v>
@@ -5648,10 +5642,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -5660,10 +5654,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5672,10 +5666,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5684,10 +5678,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -5696,10 +5690,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -5708,10 +5702,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -5720,10 +5714,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5732,10 +5726,10 @@
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
@@ -5744,10 +5738,10 @@
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -5756,10 +5750,10 @@
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -5768,10 +5762,10 @@
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -5780,10 +5774,10 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -5792,10 +5786,10 @@
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -5804,10 +5798,10 @@
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -5816,10 +5810,10 @@
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
@@ -5828,10 +5822,10 @@
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
@@ -5840,10 +5834,10 @@
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -5852,7 +5846,7 @@
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>0</v>
@@ -5864,10 +5858,10 @@
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
@@ -5876,10 +5870,10 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -5888,10 +5882,10 @@
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -5900,10 +5894,10 @@
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -5912,10 +5906,10 @@
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
@@ -5924,10 +5918,10 @@
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -5936,10 +5930,10 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -5948,10 +5942,10 @@
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -5960,10 +5954,10 @@
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
@@ -5972,10 +5966,10 @@
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
@@ -5984,10 +5978,10 @@
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C39" s="51"/>
       <c r="D39" s="51"/>
@@ -5996,70 +5990,70 @@
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -6104,140 +6098,140 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="24"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="24"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="24"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B55" s="34" t="n">
         <v>110911911</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="24"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
@@ -6283,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -6295,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -6307,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -6368,13 +6362,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -6428,28 +6422,28 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>146</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38"/>
@@ -6493,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -6525,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -6557,7 +6551,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -6738,13 +6732,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -6772,10 +6766,10 @@
     </row>
     <row r="10" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -6930,10 +6924,10 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -6962,10 +6956,10 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
@@ -7065,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -7097,7 +7091,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -7278,13 +7272,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="3"/>
@@ -7312,10 +7306,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
@@ -7344,10 +7338,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -7376,10 +7370,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -7408,10 +7402,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
@@ -7440,10 +7434,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -7472,10 +7466,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
@@ -7504,10 +7498,10 @@
     </row>
     <row r="16" customFormat="false" ht="201" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
@@ -7662,17 +7656,17 @@
     </row>
     <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="52"/>
@@ -7698,17 +7692,17 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="52"/>
@@ -7734,17 +7728,17 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="52"/>
@@ -7770,17 +7764,17 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="52"/>
@@ -7806,17 +7800,17 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="52"/>
@@ -7842,17 +7836,17 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="52"/>
@@ -7878,17 +7872,17 @@
     </row>
     <row r="27" customFormat="false" ht="113.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="52"/>
@@ -7955,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -7987,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -8019,7 +8013,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -8200,13 +8194,13 @@
     </row>
     <row r="9" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -8360,14 +8354,14 @@
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -9607,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -9619,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -9631,7 +9625,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -9643,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -9694,13 +9688,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -9708,10 +9702,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -9720,10 +9714,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -9732,10 +9726,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
@@ -9790,52 +9784,52 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="33" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="36" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
@@ -9885,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -9917,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -9949,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -10130,13 +10124,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -10164,10 +10158,10 @@
     </row>
     <row r="10" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="32"/>
@@ -10294,14 +10288,14 @@
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -10328,14 +10322,14 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="38"/>
@@ -10401,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -10413,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -10425,7 +10419,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -10486,13 +10480,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -10500,10 +10494,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -10512,10 +10506,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -10570,58 +10564,58 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
@@ -10672,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -10704,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -10736,7 +10730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -10917,13 +10911,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -10951,10 +10945,10 @@
     </row>
     <row r="10" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="32"/>
@@ -11081,14 +11075,14 @@
     </row>
     <row r="14" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -11115,14 +11109,14 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="38"/>
@@ -11149,14 +11143,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
@@ -11183,14 +11177,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="38"/>
@@ -11217,14 +11211,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
@@ -11251,14 +11245,14 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="36" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="38"/>
@@ -15765,7 +15759,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15990,7 +15984,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
         <v>222</v>
       </c>
@@ -15998,23 +15992,19 @@
         <v>223</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="22" t="s">
-        <v>224</v>
-      </c>
+      <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="22" t="s">
-        <v>226</v>
-      </c>
+      <c r="D20" s="22"/>
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
     </row>

--- a/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
+++ b/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Beschreibung" sheetId="1" state="visible" r:id="rId2"/>
@@ -140,6 +140,56 @@
 </comments>
 </file>
 
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Erscheint das bei jedem Record?
+	-Sebastian Böttger</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Ist das ein "Entweder-Oder" oder ein "Wenn 502 $a nicht existiert, dann zeige 502 $b, $c, $d"-Oder?
+	-Sebastian Böttger</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
@@ -2568,238 +2618,27 @@
     <t xml:space="preserve">Geistiger Schöpfer / Konferenz</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">773 ist wiederholbar
+    <t xml:space="preserve">773 ist wiederholbar
 Die neuen Subfelder nach RDA sind bisher noch nicht in der Schnittstelle umgesetzt aber in Planung, 09.09.2016/nz
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
 Suchlink generieren:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Wenn $w mit (DE-603) vorhanden
+Wenn $w mit (DE-603) vorhanden
 -&gt; Solr-Abfrage nach folgendem Schema:
-.....http://solr.hebis.de/verbund/select?wt=xml&amp;indent=true&amp;echoParams=none&amp;fq=</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">institution:ILN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&amp;q=</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:HEB+PPN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.....z.B. für die UB FFM: https://solr.hebis.de/verbund/select?wt=xml&amp;indent=true&amp;echoParams=none&amp;fq=</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">institution:3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&amp;q=</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:HEB046828966
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-&gt; wenn Treffer &gt;0, dann Suchlink für die id-/PPN-Suche nach dem verknüpften Datensatz generieren: 
+.....http://solr.hebis.de/verbund/select?wt=xml&amp;indent=true&amp;echoParams=none&amp;fq=institution:ILN&amp;q=id:HEB+PPN
+.....z.B. für die UB FFM: https://solr.hebis.de/verbund/select?wt=xml&amp;indent=true&amp;echoParams=none&amp;fq=institution:3&amp;q=id:HEB046828966
+-&gt; wenn Treffer &gt;0, dann Suchlink für die id-/PPN-Suche nach dem verknüpften Datensatz generieren: 
 -&gt; PPN aus $w auslesen und "(DE-603)" durch "HEB" ersetzen
 -&gt; Suchlink daraus generieren nach folgendem Schema:
-.....https://fantasio.rz.uni-frankfurt.de/ubffm/Record/</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HEB+PPN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.....Beispiel PPN 246164956: https://fantasio.rz.uni-frankfurt.de/ubffm/Record/</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HEB047408766
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-&gt; diesen Link auf den Textstring aus $a und $t legen
+.....https://fantasio.rz.uni-frankfurt.de/ubffm/Record/HEB+PPN
+.....Beispiel PPN 246164956: https://fantasio.rz.uni-frankfurt.de/ubffm/Record/HEB047408766
+-&gt; diesen Link auf den Textstring aus $a und $t legen
 -&gt; Achtung: Wenn keine $w vorhanden ist bzw. bei 0 Treffern, nur Text anzeigen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
 Link/Button "alle Artikel anzeigen":
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-&gt; PPN aus $w auslesen und "(DE-603)" entfernen
+-&gt; PPN aus $w auslesen und "(DE-603)" entfernen
 -&gt; Suchlink daraus generieren (Indexfeld "part of") nach folgendem Schema:
-     https://fantasio.rz.uni-frankfurt.de/ubffm/Search/Results?lookfor=</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PPN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&amp;type=part_of&amp;sort=pub_date_max+desc
-     Beispiel PPN 246164956: https://fantasio.rz.uni-frankfurt.de/ubffm/Search/Results?lookfor=</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">047408766</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&amp;type=part_of&amp;sort=pub_date_max+desc
+     https://fantasio.rz.uni-frankfurt.de/ubffm/Search/Results?lookfor=PPN&amp;type=part_of&amp;sort=pub_date_max+desc
+     Beispiel PPN 246164956: https://fantasio.rz.uni-frankfurt.de/ubffm/Search/Results?lookfor=047408766&amp;type=part_of&amp;sort=pub_date_max+desc
 -&gt; diesen Link auf den Textstring/Button "alle Artikel anzeigen" legen
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">773 $t</t>
@@ -3134,7 +2973,7 @@
     <t xml:space="preserve">105439231</t>
   </si>
   <si>
-    <t xml:space="preserve">ISBN 3828812627 (Sekundärausgabe)</t>
+    <t xml:space="preserve">3828812627 (Sekundärausgabe)</t>
   </si>
   <si>
     <t xml:space="preserve">776 $z mit Indikator 1 = 1</t>
@@ -3229,7 +3068,7 @@
     <t xml:space="preserve">344651460</t>
   </si>
   <si>
-    <t xml:space="preserve">9790004341247 ; 9790004341254 ; 9790004341261 ; 9790004341278 ; 9790004341285</t>
+    <t xml:space="preserve">9790004341254 ; 9790004341261 ; 9790004341278 ; 9790004341285 ; 9790004341247</t>
   </si>
   <si>
     <t xml:space="preserve">024 $a mit Indikator 1 = 3</t>
@@ -3318,7 +3157,7 @@
     <t xml:space="preserve">371396379</t>
   </si>
   <si>
-    <t xml:space="preserve">0047-7238</t>
+    <t xml:space="preserve">0047-7238 ; 2397-7310</t>
   </si>
   <si>
     <t xml:space="preserve">Körperschaft</t>
@@ -7455,7 +7294,7 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9670,8 +9509,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10094,7 +9933,7 @@
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
     </row>
-    <row r="36" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
         <v>333</v>
       </c>
@@ -10630,13 +10469,14 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z20"/>
@@ -10947,6 +10787,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12435,8 +12276,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12622,7 +12463,7 @@
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>474</v>
       </c>
@@ -13261,7 +13102,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13461,7 +13302,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
         <v>490</v>
       </c>

--- a/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
+++ b/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Beschreibung" sheetId="1" state="visible" r:id="rId2"/>
@@ -4754,7 +4754,8 @@
     <t xml:space="preserve">212739271</t>
   </si>
   <si>
-    <t xml:space="preserve">Vereinte Nationen / Charter of the United Nations
+    <t xml:space="preserve">Japan / Verfassung
+Vereinte Nationen / Charter of the United Nations
 Begriff
 Armee
 Kollektive Sicherheit
@@ -12276,7 +12277,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -14890,8 +14891,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15578,7 +15579,7 @@
       <c r="E57" s="23"/>
       <c r="F57" s="24"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="75.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="s">
         <v>626</v>
       </c>

--- a/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
+++ b/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="25"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="Beschreibung" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,18 +34,19 @@
     <sheet name="Reportnummer" sheetId="24" state="visible" r:id="rId25"/>
     <sheet name="RVK-Notation" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="Schlagworte" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Sprache" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="Teil" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="Titel" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="Titel-Ueberschrift" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="Umfang" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="Unterreihe" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="Verantwortlich" sheetId="33" state="visible" r:id="rId34"/>
-    <sheet name="Veröffentlicht" sheetId="34" state="visible" r:id="rId35"/>
-    <sheet name="Vertrieb" sheetId="35" state="visible" r:id="rId36"/>
-    <sheet name="Vorliegende Ausgabe" sheetId="36" state="visible" r:id="rId37"/>
-    <sheet name="Werktitel" sheetId="37" state="visible" r:id="rId38"/>
-    <sheet name="Zielgruppe" sheetId="38" state="visible" r:id="rId39"/>
+    <sheet name="serie_mehrbaendig" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Sprache" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Teil" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Titel" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Titel-Ueberschrift" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="Umfang" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="Unterreihe" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="Verantwortlich" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="Veröffentlicht" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="Vertrieb" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="Vorliegende Ausgabe" sheetId="37" state="visible" r:id="rId38"/>
+    <sheet name="Werktitel" sheetId="38" state="visible" r:id="rId39"/>
+    <sheet name="Zielgruppe" sheetId="39" state="visible" r:id="rId40"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -87,23 +88,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">hier erscheint "kombiniert" statt "Medienkombination". Kann man das noch ändern bzw. liegt das an der Sprachdatei?
-	-Nicole Zeiler
-Das liegt an der Sprachdatei. Kann man ändern.
-	-Sebastian Böttger</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B39" authorId="0">
       <text>
         <r>
@@ -157,7 +141,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Erscheint das bei jedem Record?
-	-Sebastian Böttger</t>
+	-Sebastian Böttger
+schwer zu sagen, aber auf jeden Fall bei der Mehrheit und wird in Zukunft wohl auch mehr werden
+	-Nicole Zeiler</t>
         </r>
       </text>
     </comment>
@@ -182,7 +168,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Ist das ein "Entweder-Oder" oder ein "Wenn 502 $a nicht existiert, dann zeige 502 $b, $c, $d"-Oder?
-	-Sebastian Böttger</t>
+	-Sebastian Böttger
+Letzteres: im Grunde genommen schließen sich beide Fälle sowieso aus: in RAK-Aufnahmen steht alles in $a und in RDA-Aufnahmen alles in $bcd
+	-Nicole Zeiler</t>
         </r>
       </text>
     </comment>
@@ -217,7 +205,59 @@
 </comments>
 </file>
 
-<file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Wieso ohne 022 $a? Davon steht nichts in den Vorgaben und das Feld ist vorhanden.
+	-Sebastian Böttger
+wieder eine Anpassung von Marc. Ich habs korrigiert. Wegen der Subfeld-Reihenfolge müssen wir mal sehen: in der Anzeige ist $y vor $a
+	-Nicole Zeiler</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">610: neues Subfeld $f, s. Testcase unten in Rot
+	-Nicole Zeiler</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -245,7 +285,7 @@
 </comments>
 </file>
 
-<file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments35.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -271,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1153">
   <si>
     <t xml:space="preserve">Titel</t>
   </si>
@@ -3151,13 +3191,13 @@
     <t xml:space="preserve">1616-1017 ; 0930-5181 ; 09320-5181</t>
   </si>
   <si>
-    <t xml:space="preserve">022 $y, ohne 022 $a</t>
+    <t xml:space="preserve">022 $y + 022 $a</t>
   </si>
   <si>
     <t xml:space="preserve">371396379</t>
   </si>
   <si>
-    <t xml:space="preserve">0047-7238 ; 2397-7310</t>
+    <t xml:space="preserve">2397-7310 ; 0047-7238</t>
   </si>
   <si>
     <t xml:space="preserve">Körperschaft</t>
@@ -4213,9 +4253,37 @@
     <t xml:space="preserve">Schlagworte</t>
   </si>
   <si>
-    <t xml:space="preserve">Detailanzeige:
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Detailanzeige:
 600 $a__$b_&lt;$c&gt;_/_$t,_$x
-610 $a_/_$b_&lt;$g&gt;_/_$t,_$x
+610 $a_/_$b_&lt;$g&gt;_/_$t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_($f)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,_$x
 611 $a,_$c,_$d_/_$e,_$f_&lt;$g&gt;,_$n_/_$t,_$x
 630 $a,_$d,_$e,_$f_&lt;$g&gt;,_$n_/_$t,_$x
 650 $a_&lt;$c&gt;,_$x_&lt;$g&gt;
@@ -4225,6 +4293,7 @@
 Inhalt mehrerer Felder fortlaufend anzeigen, Trennzeichen jeweils  _;_ (in Worten: Blank Semikolon Blank)
 Felder in der oben angegebenen Reihenfolge anzeigen, d.h. 648 zuletzt
 Suchlink einbinden (s. Anmerkungen)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Subject Access Fields-General Information</t>
@@ -4338,6 +4407,12 @@
   </si>
   <si>
     <t xml:space="preserve">610 $b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610 $f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erscheinungsjahr eines Werkes</t>
   </si>
   <si>
     <t xml:space="preserve">610 $g</t>
@@ -4751,15 +4826,37 @@
 Kongress</t>
   </si>
   <si>
+    <t xml:space="preserve">610 $f $t</t>
+  </si>
+  <si>
     <t xml:space="preserve">212739271</t>
   </si>
   <si>
-    <t xml:space="preserve">Japan / Verfassung
-Vereinte Nationen / Charter of the United Nations
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Japan / Verfassung (1947)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Vereinte Nationen / Charter of the United Nations
 Begriff
 Armee
 Kollektive Sicherheit
 Verteidigung</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">611 $n $d $c</t>
@@ -4818,6 +4915,877 @@
     <t xml:space="preserve">Novelle / Unterrichtsmaterial</t>
   </si>
   <si>
+    <t xml:space="preserve">Serie / mehrbändiges Werk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Detailanzeige:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wenn  Leader Pos. 19 = c:
+245 $a_:_$b_/_$c
++ Zusatzregeln (s. Anmerkungen)
+Wenn Leader Pos. 19 = b oder c:
+800 $a_$b,_$c:_$t_:_$n,_$p_;_$v 
+810 $a._$b_($g)_($n):_$t_:_$n,_$p_;_$v 
+811 $a_($g)_($n_:_$c_:_$d):_$t_:_$n,_$p_;_$v 
+830 $a_:_$n,_$p_;_$v 
++ Zusatzregeln (s. Anmerkungen)
+Wenn Leader Pos. 19 = # oder a:
+490 $a,_$x_;_$v
+"ISSN_" vor $x ergänzen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Zusatzregeln für alle Felder außer 490: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; $n nicht anzeigen, wenn mit [...] besetzt
+-&gt; Generierung von PPN-Suchlinks und Suchfunktion "alle Bände" anzeigen (s. Anmerkungen)
+Reihenfolge der Subfelder wie im jeweiligen Datensatz angegeben einhalten!
+Jedes der angegebenen Felder auf neuer Zeile anzeigen
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Series Statement / Series Added Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245 $a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bis auf 245 sind alle Marc-Felder wiederholbar
+Sortierzeichen @ in allen Subfeldern aus der Anzeige herausfiltern
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Zusatzregel für 245 $a: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mit der PPN aus 773 $w
+-&gt; PPN-Suchlink (s. unten) auf den Textstring aus Subfeld 245 $a - $c legen
+-&gt; auf neuer Zeile für die Suche nach allen Bänden des Gesamtwerks den Button ergänzen "alle Bände anzeigen" (s. unten)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Zusatzregel für alle 800 - 830, wenn $7 = *m: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Jeweils mit der PPN aus $w
+-&gt; PPN-Suchlink (s. unten) auf den Textstring aus den Subfeldern $a - $t legen
+-&gt; auf neuer Zeile für die Suche nach allen Bänden den Link/Button ergänzen "alle Bände anzeigen" (s. unten)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Suchlink generieren:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wenn $w mit (DE-603) vorhanden
+-&gt; Solr-Abfrage nach folgendem Schema:
+.....http://solr.hebis.de/verbund/select?wt=xml&amp;indent=true&amp;echoParams=none&amp;fq=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">institution:ILN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&amp;q=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">id:HEB+PPN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.....z.B. für die UB FFM: https://solr.hebis.de/verbund/select?wt=xml&amp;indent=true&amp;echoParams=none&amp;fq=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">institution:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&amp;q=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">id:HEB046828966
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; wenn Treffer &gt;0, dann Suchlink für die id-/PPN-Suche nach dem verknüpften Datensatz generieren: 
+-&gt; PPN aus $w auslesen und "(DE-603)" durch "HEB" ersetzen
+-&gt; Suchlink daraus generieren nach folgendem Schema:
+.....https://fantasio.rz.uni-frankfurt.de/ubffm/Record/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HEB+PPN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.....Beispiel PPN 246164956: https://fantasio.rz.uni-frankfurt.de/ubffm/Record/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HEB047408766
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; diesen Link auf den Textstring aus $a und $t legen
+-&gt; Achtung: Wenn keine $w vorhanden ist bzw. bei 0 Treffern, nur Text anzeigen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Button "alle Bände anzeigen":
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Suche mit der PPN des verknüpften Datensatzes im Index-Feld part_of mit Sortierung nach Bandzählung + Erscheinungsjahr in der Form (Beispiel, PPN 032865643, Feld 811):
+https://fantasio.rz.uni-frankfurt.de/ubffm/Search/Results?lookfor0[]=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">101299737</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&amp;type0[]=part_of&amp;sort=part_of_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">101299737</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+asc,pub_date_max+desc
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">245 $b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titel-Zusatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245 $c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verantwortlichkeitsangabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personenname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $c</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Titel und andere Wörter in Verbindung mit einem Namen - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titel eines Werkes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $n</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Zählung des Teils/der Abteilung eines Werkes - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $p</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Titel eines Teils/einer Abteilung eines Werkes - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Band/Erscheinungsverlauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 $7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontroll-Unterfeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Körperschaftsname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sonstige Informationen - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 $7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kongreßname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $c</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ort des Kongresses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum des Kongresses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $n</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Zählung des Teils/der Abteilung/eines Kongresses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">811 $7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">830 $a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einheitstitel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">830 $n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">830 $p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">830 $v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">830 $w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">830 $7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490 $a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gesamttitelangabe - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">490 $x</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ISSN - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">490 $v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bandnummer/Bandbezeichnung - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = c mit 245 mit Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01652537X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katalog der graphischen Porträts in der Herzog-August-Bibliothek Wolfenbüttel : 1500 - 1850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = c mit 245 mit Button + 830 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">024869368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sämtliche Werke, Briefe, Tagebücher und Gespräche : vierzig Bände / Johann Wolfgang Goethe. Hrsg. von Dieter Borchmeyer ...
+Bibliothek deutscher Klassiker ; 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">061413216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbuch der Orientalistik = Handbook of oriental studies / hrsg. von B. Spuler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = b, 800 mit Button/Suchlink + 830 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">016462793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyschlag, Karlmann: Grundriß der Dogmengeschichte : Bd. 2. Gott und Mensch ; Teil 1
+Grundrisse ; 3,1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = b, 2x 800 mit Button/Suchlink + @ in $t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365307637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schröder, Jörg: Schröder erzählt - Schwarze Serie ; 23
+Schröder, Jörg: Schröder erzählt ; 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = # mit 490 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23188267X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bericht / Institut für Stahlbau, Technische Universität Braunschweig ; 6077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">075473461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kongreß des CEEP ; 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">051136082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schriftenreihe der Sektion I des Bundesministeriums für Umwelt, Jugend und Familie ; 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = b, 810 mit Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192276018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staatsbibliothek zu Berlin. Handschriftenabteilung: Kataloge der Handschriftenabteilung (Reihe 1), Handschriften ; Bd. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = # mit 2x 490 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231950888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeitstagung der Gesellschaft für Sozial- und Wirtschaftsgeschichte ; 23 
+Vierteljahrschrift für Sozial- und Wirtschaftsgeschichte : Beihefte ; 214 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = b, 811 mit Button/Suchlink + 830 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">032865643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linguistisches Kolloquium (18 : 1983 : Linz): Akten des 18. Linguistischen Kolloquiums ; 2 
+Linguistische Arbeiten ; 146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = b, 830 mit Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011520051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbuch der Orientalistik = Handbook of oriental studies / hrsg. von B. Spuler : Abt. 5, Japan : Vol. 1, Allgemeines, Sprache und Schrift ; Abschn. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">051360985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flora of southern Africa : which deals with the territories of South Africa, Ciskei, Transkei, Lesotho, Swaziland, Bophuthatswana, South West Africa/Namibia, Botswana and Venda / [Republic of South Africa, Dep. of Agriculture and Water Supply]. Ed. O. A. Leistner ..., Flowering plants volumes : Vol. 4 / ed. by O. A. Leistner ; Pt. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = b, 2x 830 mit Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">074525301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handbuch der Rechtspraxis ; 5 b 
+Familienrecht / bis zur 4. Aufl. von Karl Firsching bearb. ; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = b, 1x 830 mit Button/Suchlink + 1x 830 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105382779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linguistik international ; 8 
+Sprachwissenschaft auf dem Weg in das dritte Jahrtausend : Akten des 34. Linguistischen Kolloquiums in Germersheim 1999 = Linguistics on the way into the third millennium / Reinhard Rapp (Hrsg.) ; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232150117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travaux de l'institut Charles Darwin international</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = #, 2x 490 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">076709876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schriftenreihe der Niedersächsischen Landeszentrale für Politische Bildung 
+Fakten, Meinungen, Argumente ; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = a mit 490 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365988642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teatro del Siglo de Oro : Estudios de Literatura ; ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366035576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studies in the history of religions : Numen book series, ISSN 01698834 ; 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leader Pos. 19 = #, 3x 490 ohne Button/Suchlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366251163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Österreichische Akademie der Wissenschaften, Denkschriften der Philosophisch-Historische Klasse ; 443 
+Veröffentlichungen zur Kunstgeschichte ; 12 
+Veröffentlichungen zur Bau- und Funktionsgeschichte der Wiener Hofburg ; 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprache</t>
   </si>
   <si>
@@ -5010,9 +5978,6 @@
   </si>
   <si>
     <t xml:space="preserve">Title Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245 $a</t>
   </si>
   <si>
     <r>
@@ -5129,18 +6094,6 @@
     <t xml:space="preserve">Medium</t>
   </si>
   <si>
-    <t xml:space="preserve">245 $b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel-Zusatz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245 $c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verantwortlichkeitsangabe</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5212,12 +6165,6 @@
   </si>
   <si>
     <t xml:space="preserve">245 $a $b und 2x $n $p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01652537X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katalog der graphischen Porträts in der Herzog-August-Bibliothek Wolfenbüttel : 1500 - 1850</t>
   </si>
   <si>
     <t xml:space="preserve">Katalog der graphischen Porträts in der Herzog-August-Bibliothek Wolfenbüttel : 1500 - 1850
@@ -5933,28 +6880,6 @@
   </si>
   <si>
     <t xml:space="preserve">533 $f</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Gesamttitelangabe - </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">w</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">583 $h</t>
@@ -6095,6 +7020,9 @@
     <t xml:space="preserve">240 $g</t>
   </si>
   <si>
+    <t xml:space="preserve">240 $k</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6103,7 +7031,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Sonstige Informationen - </t>
+      <t xml:space="preserve">Auswahl - </t>
     </r>
     <r>
       <rPr>
@@ -6117,7 +7045,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">240 $k</t>
+    <t xml:space="preserve">240 $m</t>
   </si>
   <si>
     <r>
@@ -6128,7 +7056,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Auswahl - </t>
+      <t xml:space="preserve">Besetzung - </t>
     </r>
     <r>
       <rPr>
@@ -6142,7 +7070,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">240 $m</t>
+    <t xml:space="preserve">240 $n</t>
   </si>
   <si>
     <r>
@@ -6153,7 +7081,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Besetzung - </t>
+      <t xml:space="preserve">Numerische Bezeichnung eines Musikwerks bzw. Zählung der Unterreihe - </t>
     </r>
     <r>
       <rPr>
@@ -6167,7 +7095,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">240 $n</t>
+    <t xml:space="preserve">240 $o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrangements, Transkriptionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240 $p</t>
   </si>
   <si>
     <r>
@@ -6178,37 +7112,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Numerische Bezeichnung eines Musikwerks bzw. Zählung der Unterreihe - </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">w</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">240 $o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrangements, Transkriptionen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240 $p</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Titel der Unterreihe - </t>
     </r>
     <r>
@@ -6451,12 +7354,6 @@
   </si>
   <si>
     <t xml:space="preserve">A learning society &lt;dt&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240 $a 2x$m $n $r + 040 $e = rda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konzerte, Klavier, Orchester, J 155, Es-Dur</t>
   </si>
   <si>
     <t xml:space="preserve">243 $a $g</t>
@@ -6677,7 +7574,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6790,6 +7687,13 @@
       <color rgb="FF000000"/>
       <name val="SimSun"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -6943,7 +7847,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7208,6 +8112,18 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7273,7 +8189,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00B050"/>
@@ -7295,7 +8211,7 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -12277,8 +13193,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12464,7 +13380,7 @@
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>474</v>
       </c>
@@ -13103,7 +14019,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13303,7 +14219,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
         <v>490</v>
       </c>
@@ -13329,6 +14245,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13998,6 +14915,7 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
@@ -14191,7 +15109,6 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
@@ -14448,7 +15365,6 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z15"/>
@@ -14886,13 +15802,13 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15080,593 +15996,1592 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="66" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="E53" s="23"/>
+      <c r="F53" s="24"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="F54" s="24"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="E55" s="23"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>686</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>689</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="B58" s="35" t="n">
+        <v>110911911</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="58" t="s">
+        <v>692</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61" t="s">
+        <v>694</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D28"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0976744186047"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.8558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="15.2511627906977"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>624</v>
+        <v>722</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>625</v>
+        <v>723</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>626</v>
+        <v>724</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>627</v>
+        <v>726</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>621</v>
+        <v>727</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>628</v>
+        <v>728</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>629</v>
+        <v>729</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>630</v>
+        <v>730</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>631</v>
+        <v>56</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>632</v>
+        <v>731</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>633</v>
+        <v>732</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>634</v>
+        <v>733</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>635</v>
+        <v>734</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>636</v>
+        <v>735</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>637</v>
+        <v>433</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>638</v>
+        <v>736</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>625</v>
+        <v>737</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>639</v>
+        <v>738</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>437</v>
+        <v>725</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>640</v>
+        <v>739</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>619</v>
+        <v>723</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>621</v>
+        <v>725</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+        <v>727</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+        <v>729</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>645</v>
+        <v>742</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>647</v>
+        <v>743</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+        <v>732</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+        <v>745</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>649</v>
+        <v>746</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+        <v>747</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>650</v>
+        <v>748</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+        <v>749</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+        <v>751</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>652</v>
+        <v>752</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+        <v>723</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+        <v>727</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+        <v>729</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>658</v>
+        <v>755</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>660</v>
+        <v>756</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>661</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>662</v>
+        <v>757</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>625</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>663</v>
+        <v>759</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>657</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>664</v>
+        <v>760</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>665</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>653</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>667</v>
+        <v>762</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>668</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>670</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>671</v>
+        <v>764</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>672</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>673</v>
+        <v>766</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>653</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F52" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>675</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22" t="s">
-        <v>676</v>
-      </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="24"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="24"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="19" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="22" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="22" t="s">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>687</v>
+        <v>776</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="22" t="s">
-        <v>688</v>
+        <v>777</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="19" t="s">
-        <v>658</v>
-      </c>
-      <c r="B57" s="35" t="n">
-        <v>110911911</v>
+        <v>778</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>779</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="22" t="s">
-        <v>689</v>
+        <v>780</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="24"/>
     </row>
-    <row r="58" customFormat="false" ht="75.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="19" t="s">
-        <v>626</v>
+        <v>781</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="22" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="24"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="22" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
-        <v>656</v>
+        <v>784</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="22" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="24"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="19" t="s">
-        <v>616</v>
+        <v>784</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>697</v>
+        <v>789</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="22" t="s">
-        <v>698</v>
+        <v>790</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="24"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="19" t="s">
-        <v>699</v>
+        <v>791</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>700</v>
+        <v>792</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="22" t="s">
-        <v>701</v>
+        <v>793</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="24"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
-        <v>702</v>
+        <v>794</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>703</v>
+        <v>795</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="22" t="s">
-        <v>704</v>
+        <v>796</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="24"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="E65" s="23"/>
+      <c r="F65" s="24"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>803</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>806</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>814</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>817</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="E71" s="23"/>
+      <c r="F71" s="24"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D27"/>
+    <mergeCell ref="C9:D49"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15678,7 +17593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15703,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>705</v>
+        <v>824</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -15715,7 +17630,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>706</v>
+        <v>825</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -15727,7 +17642,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>707</v>
+        <v>826</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -15788,13 +17703,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>708</v>
+        <v>827</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>709</v>
+        <v>828</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>710</v>
+        <v>829</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -15848,28 +17763,28 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>711</v>
+        <v>830</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>246</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
-        <v>712</v>
+        <v>831</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>713</v>
+        <v>832</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>714</v>
+        <v>833</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
-        <v>715</v>
+        <v>834</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="39"/>
@@ -15885,7 +17800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15913,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>716</v>
+        <v>835</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -15945,7 +17860,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>717</v>
+        <v>836</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -15977,7 +17892,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>718</v>
+        <v>837</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -16158,13 +18073,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>719</v>
+        <v>838</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>720</v>
+        <v>839</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>721</v>
+        <v>840</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -16192,10 +18107,10 @@
     </row>
     <row r="10" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>722</v>
+        <v>841</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>723</v>
+        <v>842</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -16330,7 +18245,7 @@
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="66"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
@@ -16350,14 +18265,14 @@
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>724</v>
+        <v>843</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>725</v>
+        <v>844</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22" t="s">
-        <v>726</v>
+        <v>845</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -16384,14 +18299,14 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>727</v>
+        <v>846</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>728</v>
+        <v>847</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>729</v>
+        <v>848</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
@@ -16419,927 +18334,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C9:C10"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z27"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1441860465116"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.753488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="15.2511627906977"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-    </row>
-    <row r="2" customFormat="false" ht="188.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>730</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>738</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-    </row>
-    <row r="16" customFormat="false" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-    </row>
-    <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>745</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>749</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22" t="s">
-        <v>750</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>751</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>753</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>757</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>761</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>763</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>764</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>765</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22" t="s">
-        <v>766</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>767</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>768</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>728</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>770</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17548,6 +18542,927 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF0000"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z27"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1441860465116"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5767441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.753488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="15.2511627906977"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+    </row>
+    <row r="2" customFormat="false" ht="188.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>849</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+    </row>
+    <row r="16" customFormat="false" ht="124.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+    </row>
+    <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>861</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>865</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>871</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>872</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22" t="s">
+        <v>874</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>877</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D16"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z15"/>
@@ -17573,7 +19488,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>771</v>
+        <v>883</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -17605,7 +19520,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>772</v>
+        <v>884</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -17637,7 +19552,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>773</v>
+        <v>885</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -17818,13 +19733,13 @@
     </row>
     <row r="9" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>774</v>
+        <v>886</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -17978,14 +19893,14 @@
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>775</v>
+        <v>887</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="22" t="s">
-        <v>776</v>
+        <v>888</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -19007,7 +20922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -19031,7 +20946,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>777</v>
+        <v>889</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -19043,7 +20958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>778</v>
+        <v>890</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -19067,7 +20982,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>779</v>
+        <v>891</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -19118,13 +21033,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>780</v>
+        <v>892</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>781</v>
+        <v>893</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>782</v>
+        <v>894</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -19132,10 +21047,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>783</v>
+        <v>895</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>784</v>
+        <v>896</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -19144,10 +21059,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>785</v>
+        <v>897</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>786</v>
+        <v>898</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -19156,10 +21071,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>787</v>
+        <v>899</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>788</v>
+        <v>900</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
@@ -19214,49 +21129,49 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>789</v>
+        <v>901</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>790</v>
+        <v>902</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="37" t="s">
-        <v>791</v>
+        <v>903</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>792</v>
+        <v>904</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>793</v>
+        <v>905</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="37" t="s">
-        <v>794</v>
+        <v>906</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>795</v>
+        <v>907</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="37" t="s">
-        <v>797</v>
+        <v>909</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>798</v>
+        <v>910</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>338</v>
@@ -19280,7 +21195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00B050"/>
@@ -19309,7 +21224,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>799</v>
+        <v>911</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -19341,7 +21256,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>800</v>
+        <v>912</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -19373,7 +21288,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>718</v>
+        <v>837</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -19554,13 +21469,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>719</v>
+        <v>838</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>720</v>
+        <v>839</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>721</v>
+        <v>840</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -19588,10 +21503,10 @@
     </row>
     <row r="10" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>722</v>
+        <v>841</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>723</v>
+        <v>842</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="43"/>
@@ -19718,14 +21633,14 @@
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>724</v>
+        <v>843</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>801</v>
+        <v>913</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="22" t="s">
-        <v>802</v>
+        <v>914</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -19752,14 +21667,14 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>727</v>
+        <v>846</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
-        <v>804</v>
+        <v>916</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="39"/>
@@ -19798,7 +21713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00B050"/>
@@ -19825,7 +21740,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>805</v>
+        <v>917</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -19837,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>806</v>
+        <v>918</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -19849,7 +21764,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>807</v>
+        <v>919</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -19913,10 +21828,10 @@
         <v>134</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>808</v>
+        <v>920</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>809</v>
+        <v>921</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -19948,7 +21863,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>810</v>
+        <v>922</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>163</v>
@@ -20011,7 +21926,7 @@
         <v>145</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>811</v>
+        <v>923</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="3"/>
@@ -20089,7 +22004,7 @@
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="37" t="s">
-        <v>812</v>
+        <v>924</v>
       </c>
       <c r="E23" s="38" t="s">
         <v>154</v>
@@ -20105,7 +22020,7 @@
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="37" t="s">
-        <v>813</v>
+        <v>925</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>157</v>
@@ -20121,7 +22036,7 @@
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="37" t="s">
-        <v>814</v>
+        <v>926</v>
       </c>
       <c r="E25" s="38" t="s">
         <v>168</v>
@@ -20153,7 +22068,7 @@
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="37" t="s">
-        <v>815</v>
+        <v>927</v>
       </c>
       <c r="E27" s="38" t="s">
         <v>175</v>
@@ -20162,14 +22077,14 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
-        <v>816</v>
+        <v>928</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>177</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="37" t="s">
-        <v>817</v>
+        <v>929</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>178</v>
@@ -20185,58 +22100,58 @@
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="37" t="s">
-        <v>818</v>
+        <v>930</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>819</v>
+        <v>931</v>
       </c>
       <c r="F29" s="39"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
-        <v>820</v>
+        <v>932</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>232</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="37" t="s">
-        <v>821</v>
+        <v>933</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>822</v>
+        <v>934</v>
       </c>
       <c r="F30" s="39"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>823</v>
+        <v>935</v>
       </c>
       <c r="B31" s="35" t="n">
         <v>384829732</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="37" t="s">
-        <v>824</v>
+        <v>936</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>825</v>
+        <v>937</v>
       </c>
       <c r="F31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>826</v>
+        <v>938</v>
       </c>
       <c r="B32" s="35" t="n">
         <v>382399013</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="37" t="s">
-        <v>827</v>
+        <v>939</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>828</v>
+        <v>940</v>
       </c>
       <c r="F32" s="39"/>
     </row>
@@ -20255,7 +22170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFF0000"/>
@@ -20282,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>829</v>
+        <v>941</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -20294,7 +22209,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>830</v>
+        <v>942</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -20370,10 +22285,10 @@
         <v>203</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>831</v>
+        <v>943</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>832</v>
+        <v>944</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -20384,7 +22299,7 @@
         <v>206</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>833</v>
+        <v>945</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -20396,7 +22311,7 @@
         <v>208</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>834</v>
+        <v>946</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -20405,10 +22320,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>835</v>
+        <v>947</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>836</v>
+        <v>948</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -20463,58 +22378,58 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>837</v>
+        <v>949</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>170</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
-        <v>838</v>
+        <v>950</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>838</v>
+        <v>950</v>
       </c>
       <c r="F17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>839</v>
+        <v>951</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>840</v>
+        <v>952</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22" t="s">
-        <v>841</v>
+        <v>953</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>842</v>
+        <v>954</v>
       </c>
       <c r="F18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>843</v>
+        <v>955</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>844</v>
+        <v>956</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22" t="s">
-        <v>845</v>
+        <v>957</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>845</v>
+        <v>957</v>
       </c>
       <c r="F19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>846</v>
+        <v>958</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>847</v>
+        <v>959</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -20523,39 +22438,39 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>848</v>
+        <v>960</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>849</v>
+        <v>961</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22" t="s">
-        <v>850</v>
+        <v>962</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>851</v>
+        <v>963</v>
       </c>
       <c r="F21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>852</v>
+        <v>964</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>853</v>
+        <v>965</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22" t="s">
-        <v>854</v>
+        <v>966</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>855</v>
+        <v>967</v>
       </c>
       <c r="F22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="58" t="s">
-        <v>856</v>
+        <v>968</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>126</v>
@@ -20563,7 +22478,7 @@
       <c r="C23" s="60"/>
       <c r="D23" s="61"/>
       <c r="E23" s="48" t="s">
-        <v>857</v>
+        <v>969</v>
       </c>
       <c r="F23" s="62"/>
       <c r="G23" s="63"/>
@@ -20603,7 +22518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00B050"/>
@@ -20629,7 +22544,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>858</v>
+        <v>970</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -20641,7 +22556,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>859</v>
+        <v>971</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -20717,7 +22632,7 @@
         <v>203</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>860</v>
+        <v>972</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>352</v>
@@ -20731,7 +22646,7 @@
         <v>206</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>858</v>
+        <v>970</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -20743,7 +22658,7 @@
         <v>208</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>861</v>
+        <v>973</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -20798,42 +22713,42 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>862</v>
+        <v>974</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>863</v>
+        <v>975</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="37" t="s">
-        <v>864</v>
+        <v>976</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>862</v>
+        <v>974</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>865</v>
+        <v>977</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="37" t="s">
-        <v>866</v>
+        <v>978</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>862</v>
+        <v>974</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>867</v>
+        <v>979</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="37" t="s">
-        <v>868</v>
+        <v>980</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="39"/>
@@ -20852,7 +22767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FF00B050"/>
@@ -20877,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>869</v>
+        <v>981</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -20889,7 +22804,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>870</v>
+        <v>982</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -20901,7 +22816,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>871</v>
+        <v>983</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -20965,10 +22880,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>872</v>
+        <v>984</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>873</v>
+        <v>985</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -20976,10 +22891,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>874</v>
+        <v>986</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>875</v>
+        <v>987</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -20988,10 +22903,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>876</v>
+        <v>988</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>877</v>
+        <v>989</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -21000,10 +22915,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>835</v>
+        <v>947</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
@@ -21012,7 +22927,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>878</v>
+        <v>990</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>48</v>
@@ -21024,10 +22939,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>879</v>
+        <v>991</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>880</v>
+        <v>765</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="3"/>
@@ -21036,10 +22951,10 @@
     </row>
     <row r="15" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>881</v>
+        <v>992</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>882</v>
+        <v>993</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="3"/>
@@ -21094,84 +23009,84 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>883</v>
+        <v>994</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>884</v>
+        <v>995</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="37" t="s">
-        <v>885</v>
+        <v>996</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>886</v>
+        <v>997</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>887</v>
+        <v>998</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="37" t="s">
-        <v>888</v>
+        <v>999</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>886</v>
+        <v>997</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="37" t="s">
-        <v>890</v>
+        <v>1001</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>891</v>
+        <v>1002</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>892</v>
+        <v>1003</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="37" t="s">
-        <v>893</v>
+        <v>1004</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>894</v>
+        <v>1005</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>895</v>
+        <v>1006</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="37" t="s">
-        <v>896</v>
+        <v>1007</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>897</v>
+        <v>1008</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>898</v>
+        <v>1009</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="37" t="s">
-        <v>899</v>
+        <v>1010</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="39"/>
@@ -21179,1184 +23094,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C9:C15"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F96"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.4883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3627906976744"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.4697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.893023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="15.2511627906977"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" customFormat="false" ht="235.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>901</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>904</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>906</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>907</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>908</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
-        <v>910</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>911</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>912</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>913</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
-        <v>914</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>915</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
-        <v>916</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>917</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
-        <v>918</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>919</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>920</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>921</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>922</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>923</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
-        <v>924</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
-        <v>925</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>907</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
-        <v>926</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
-        <v>927</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>911</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
-        <v>928</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>913</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="s">
-        <v>929</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>915</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29" t="s">
-        <v>930</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>917</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="s">
-        <v>931</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>919</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
-        <v>932</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>921</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
-        <v>933</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>923</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>934</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
-        <v>935</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="s">
-        <v>936</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29" t="s">
-        <v>937</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>907</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29" t="s">
-        <v>938</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29" t="s">
-        <v>939</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>911</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29" t="s">
-        <v>940</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>913</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
-        <v>941</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>915</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="s">
-        <v>942</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>917</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29" t="s">
-        <v>943</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>919</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="s">
-        <v>944</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>921</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29" t="s">
-        <v>945</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>923</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29" t="s">
-        <v>946</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
-        <v>947</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>907</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
-        <v>948</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="s">
-        <v>949</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>911</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29" t="s">
-        <v>950</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>913</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
-        <v>951</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>915</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
-        <v>952</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>917</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="s">
-        <v>953</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>919</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29" t="s">
-        <v>954</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>921</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="s">
-        <v>955</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>923</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="29" t="s">
-        <v>956</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="29" t="s">
-        <v>957</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>907</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="29" t="s">
-        <v>958</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>911</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="29" t="s">
-        <v>959</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>913</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>915</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="29" t="s">
-        <v>960</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>917</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="29" t="s">
-        <v>961</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>919</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
-        <v>962</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>921</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="29" t="s">
-        <v>963</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>923</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="29" t="s">
-        <v>964</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="29" t="s">
-        <v>965</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>907</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="29" t="s">
-        <v>518</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="29" t="s">
-        <v>966</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>911</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="29" t="s">
-        <v>967</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>913</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>915</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="29" t="s">
-        <v>968</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>917</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="29" t="s">
-        <v>969</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>919</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="29" t="s">
-        <v>970</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>921</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="29" t="s">
-        <v>971</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>923</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="34" t="s">
-        <v>972</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>973</v>
-      </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="E76" s="38"/>
-      <c r="F76" s="39"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="34" t="s">
-        <v>975</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>976</v>
-      </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E77" s="38"/>
-      <c r="F77" s="39"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="34" t="s">
-        <v>978</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>979</v>
-      </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="E78" s="38"/>
-      <c r="F78" s="39"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="34" t="s">
-        <v>981</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>982</v>
-      </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="37" t="s">
-        <v>983</v>
-      </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="39"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="34" t="s">
-        <v>984</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>985</v>
-      </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37" t="s">
-        <v>986</v>
-      </c>
-      <c r="E80" s="38"/>
-      <c r="F80" s="39"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="34" t="s">
-        <v>987</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>988</v>
-      </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="37" t="s">
-        <v>989</v>
-      </c>
-      <c r="E81" s="38"/>
-      <c r="F81" s="39"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="34" t="s">
-        <v>990</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>991</v>
-      </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37" t="s">
-        <v>992</v>
-      </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="39"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="34" t="s">
-        <v>993</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="39"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="34" t="s">
-        <v>996</v>
-      </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37" t="s">
-        <v>997</v>
-      </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="39"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="34" t="s">
-        <v>998</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>999</v>
-      </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="37" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="34" t="s">
-        <v>934</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>887</v>
-      </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="37" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="34" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="37" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="34" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="37" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="34" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="37" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E89" s="38"/>
-      <c r="F89" s="39"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="34" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C90" s="36"/>
-      <c r="D90" s="37" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="39"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="34" t="s">
-        <v>823</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E91" s="38"/>
-      <c r="F91" s="39"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="34" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="37" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="39"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="34" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="37" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E93" s="38"/>
-      <c r="F93" s="39"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="34" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="37" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="39"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="34" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E95" s="38"/>
-      <c r="F95" s="39"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="34" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="37" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E96" s="38"/>
-      <c r="F96" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C9:C29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22374,9 +23111,1176 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F96"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.4697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.893023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="15.2511627906977"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" customFormat="false" ht="235.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="29" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="29" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="29" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="29" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="29" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="29" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="29" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="29" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="29" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="29" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="34" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E76" s="38"/>
+      <c r="F76" s="39"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="34" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E77" s="38"/>
+      <c r="F77" s="39"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="34" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="37" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E78" s="38"/>
+      <c r="F78" s="39"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="34" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C79" s="36"/>
+      <c r="D79" s="37" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E79" s="38"/>
+      <c r="F79" s="39"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="34" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="37" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E80" s="38"/>
+      <c r="F80" s="39"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="37" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E81" s="38"/>
+      <c r="F81" s="39"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="34" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E82" s="38"/>
+      <c r="F82" s="39"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="34" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E83" s="38"/>
+      <c r="F83" s="39"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="34" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E84" s="38"/>
+      <c r="F84" s="39"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="34" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>998</v>
+      </c>
+      <c r="C85" s="36"/>
+      <c r="D85" s="37" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E85" s="38"/>
+      <c r="F85" s="39"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="34" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E86" s="38"/>
+      <c r="F86" s="39"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="34" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="37" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E87" s="38"/>
+      <c r="F87" s="39"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="37" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E88" s="38"/>
+      <c r="F88" s="39"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="34" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="37" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E89" s="38"/>
+      <c r="F89" s="39"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="37" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E90" s="38"/>
+      <c r="F90" s="39"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="34" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E91" s="38"/>
+      <c r="F91" s="39"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="34" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="37" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E92" s="38"/>
+      <c r="F92" s="39"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="34" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C93" s="36"/>
+      <c r="D93" s="37" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E93" s="38"/>
+      <c r="F93" s="39"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="37" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E94" s="38"/>
+      <c r="F94" s="39"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="34" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="37" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E95" s="38"/>
+      <c r="F95" s="39"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C29"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -22394,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1031</v>
+        <v>1139</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -22406,7 +24310,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1032</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -22418,7 +24322,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1033</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -22479,13 +24383,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>1034</v>
+        <v>1142</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1035</v>
+        <v>1143</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1036</v>
+        <v>1144</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -22493,10 +24397,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>1037</v>
+        <v>1145</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1038</v>
+        <v>1146</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -22551,42 +24455,42 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>1034</v>
+        <v>1142</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>1039</v>
+        <v>1147</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22" t="s">
-        <v>1040</v>
+        <v>1148</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>1037</v>
+        <v>1145</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>1041</v>
+        <v>1149</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>1042</v>
+        <v>1150</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>1034</v>
+        <v>1142</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>1043</v>
+        <v>1151</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
-        <v>1044</v>
+        <v>1152</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>

--- a/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
+++ b/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Beschreibung" sheetId="1" state="visible" r:id="rId2"/>
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1148">
   <si>
     <t xml:space="preserve">Titel</t>
   </si>
@@ -1432,7 +1432,7 @@
     <t xml:space="preserve">047322551</t>
   </si>
   <si>
-    <t xml:space="preserve">Mikrofiche-Ausg.:: München : Bayerische Staatsbibliothek, 1997. 260 Mikrofiches : 24x. - Mikrofilm-Ausg.: München : Bayerische Staatsbibliothek, 1997. Preservation und Printing Master. Je 13 Rollfilme. - Mikrofilm-Ausg.: Berlin : Staatsbibliothek zu Berlin</t>
+    <t xml:space="preserve">Mikrofiche-Ausg.: München : Bayerische Staatsbibliothek, 1997. 260 Mikrofiches : 24x. - Mikrofilm-Ausg.: München : Bayerische Staatsbibliothek, 1997. Preservation und Printing Master. Je 13 Rollfilme. - Mikrofilm-Ausg.: Berlin : Staatsbibliothek zu Berlin</t>
   </si>
   <si>
     <t xml:space="preserve">Ausgabe</t>
@@ -6642,6 +6642,9 @@
   </si>
   <si>
     <t xml:space="preserve">Riga, 1904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riga : Stahl</t>
   </si>
   <si>
     <t xml:space="preserve">2x $a</t>
@@ -10473,7 +10476,7 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -19246,8 +19249,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19407,7 +19410,7 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37" t="s">
         <v>108</v>
       </c>
@@ -20445,8 +20448,8 @@
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20675,7 +20678,7 @@
       </c>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
         <v>188</v>
       </c>
@@ -20687,7 +20690,7 @@
         <v>954</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F19" s="24"/>
     </row>
@@ -20705,39 +20708,39 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>194</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>127</v>
@@ -20745,7 +20748,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="62"/>
@@ -20771,7 +20774,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>545</v>
@@ -20781,7 +20784,7 @@
         <v>550</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F24" s="42"/>
     </row>
@@ -20825,7 +20828,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -20837,7 +20840,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -20913,7 +20916,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>327</v>
@@ -20927,7 +20930,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -20939,7 +20942,7 @@
         <v>171</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -20994,42 +20997,42 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="40" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="40" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="42"/>
@@ -21073,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -21085,7 +21088,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -21097,7 +21100,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -21161,10 +21164,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -21172,10 +21175,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -21184,10 +21187,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -21208,7 +21211,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>49</v>
@@ -21220,7 +21223,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>738</v>
@@ -21232,10 +21235,10 @@
     </row>
     <row r="15" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="3"/>
@@ -21290,14 +21293,14 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="43" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="48"/>
@@ -21324,56 +21327,56 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="40" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="42"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="40" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="40" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="40" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="42"/>
@@ -21419,7 +21422,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -21431,7 +21434,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -21443,7 +21446,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -21510,7 +21513,7 @@
         <v>307</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -21518,10 +21521,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -21530,10 +21533,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -21542,7 +21545,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>710</v>
@@ -21554,10 +21557,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="3"/>
@@ -21566,10 +21569,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="3"/>
@@ -21578,10 +21581,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="3"/>
@@ -21590,10 +21593,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="3"/>
@@ -21602,10 +21605,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="3"/>
@@ -21614,10 +21617,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="3"/>
@@ -21626,7 +21629,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>622</v>
@@ -21638,10 +21641,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="3"/>
@@ -21650,10 +21653,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="3"/>
@@ -21662,7 +21665,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>710</v>
@@ -21674,10 +21677,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="3"/>
@@ -21686,10 +21689,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="3"/>
@@ -21698,10 +21701,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
@@ -21710,10 +21713,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
@@ -21722,10 +21725,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
@@ -21734,10 +21737,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="3"/>
@@ -21746,7 +21749,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>622</v>
@@ -21758,10 +21761,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="31" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -21769,7 +21772,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>710</v>
@@ -21780,10 +21783,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -21791,10 +21794,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -21802,7 +21805,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="31" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>710</v>
@@ -21813,10 +21816,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="31" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -21824,10 +21827,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -21835,10 +21838,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="31" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -21846,10 +21849,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="31" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -21857,10 +21860,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -21868,10 +21871,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="31" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -21879,7 +21882,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="31" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>622</v>
@@ -21890,10 +21893,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="31" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -21901,10 +21904,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="31" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -21912,7 +21915,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>710</v>
@@ -21923,10 +21926,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="31" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -21934,10 +21937,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -21945,10 +21948,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -21956,10 +21959,10 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -21967,10 +21970,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -21978,10 +21981,10 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="31" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -21989,7 +21992,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="31" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>622</v>
@@ -22000,10 +22003,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="31" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -22011,10 +22014,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="31" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -22033,10 +22036,10 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="31" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -22044,10 +22047,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="31" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -22058,7 +22061,7 @@
         <v>479</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -22066,10 +22069,10 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="31" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -22077,10 +22080,10 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="31" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -22088,10 +22091,10 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="31" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -22099,7 +22102,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="31" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B61" s="32" t="s">
         <v>622</v>
@@ -22110,10 +22113,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="31" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -22121,10 +22124,10 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="31" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -22143,10 +22146,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -22154,10 +22157,10 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -22168,7 +22171,7 @@
         <v>484</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -22176,10 +22179,10 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -22187,10 +22190,10 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -22198,10 +22201,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -22209,7 +22212,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>622</v>
@@ -22266,70 +22269,70 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="37" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C76" s="39"/>
       <c r="D76" s="40" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E76" s="41"/>
       <c r="F76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="37" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="40" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E77" s="41"/>
       <c r="F77" s="42"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="37" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C78" s="39"/>
       <c r="D78" s="40" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E78" s="41"/>
       <c r="F78" s="42"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="37" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="40" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E79" s="41"/>
       <c r="F79" s="42"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="37" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C80" s="39"/>
       <c r="D80" s="40" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E80" s="41"/>
       <c r="F80" s="42"/>
@@ -22339,109 +22342,109 @@
         <v>934</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C81" s="39"/>
       <c r="D81" s="40" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E81" s="41"/>
       <c r="F81" s="42"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="37" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C82" s="39"/>
       <c r="D82" s="40" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E82" s="41"/>
       <c r="F82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="37" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C83" s="39"/>
       <c r="D83" s="40" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E83" s="41"/>
       <c r="F83" s="42"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="37" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C84" s="39"/>
       <c r="D84" s="40" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E84" s="41"/>
       <c r="F84" s="42"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="37" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="40" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E85" s="41"/>
       <c r="F85" s="42"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="37" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C86" s="39"/>
       <c r="D86" s="40" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E86" s="41"/>
       <c r="F86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="37" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C87" s="39"/>
       <c r="D87" s="40" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E87" s="41"/>
       <c r="F87" s="42"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="37" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="40" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E88" s="41"/>
       <c r="F88" s="42"/>
@@ -22451,95 +22454,95 @@
         <v>934</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C89" s="39"/>
       <c r="D89" s="40" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E89" s="41"/>
       <c r="F89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="37" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="40" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E90" s="41"/>
       <c r="F90" s="42"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="37" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C91" s="39"/>
       <c r="D91" s="40" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E91" s="41"/>
       <c r="F91" s="42"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="37" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C92" s="39"/>
       <c r="D92" s="40" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E92" s="41"/>
       <c r="F92" s="42"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="37" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C93" s="39"/>
       <c r="D93" s="40" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E93" s="41"/>
       <c r="F93" s="42"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="37" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C94" s="39"/>
       <c r="D94" s="40" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E94" s="41"/>
       <c r="F94" s="42"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="37" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C95" s="39"/>
       <c r="D95" s="40" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E95" s="41"/>
       <c r="F95" s="42"/>
@@ -22583,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -22595,7 +22598,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -22607,7 +22610,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -22668,13 +22671,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -22682,10 +22685,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -22740,42 +22743,42 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
@@ -22819,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -22829,7 +22832,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>

--- a/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
+++ b/tests/unit-tests/fixtures/spreadsheet/rda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Beschreibung" sheetId="1" state="visible" r:id="rId2"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="1096">
   <si>
     <t xml:space="preserve">Titel</t>
   </si>
@@ -1750,13 +1750,13 @@
     <t xml:space="preserve">383651484</t>
   </si>
   <si>
-    <t xml:space="preserve">[Entstehungsort nicht ermittelbar], 18.07.1620, 18.07.1620</t>
+    <t xml:space="preserve">[Entstehungsort nicht ermittelbar], 18.07.1620</t>
   </si>
   <si>
     <t xml:space="preserve">383650747</t>
   </si>
   <si>
-    <t xml:space="preserve">[Entstehungsort nicht ermittelbar], 20.06.1620, 20.06.1620</t>
+    <t xml:space="preserve">[Entstehungsort nicht ermittelbar], 20.06.1620</t>
   </si>
   <si>
     <t xml:space="preserve">Erscheingunsjahr</t>
@@ -2352,8 +2352,8 @@
     <t xml:space="preserve">2x 780</t>
   </si>
   <si>
-    <t xml:space="preserve">Vorg.: Büchereidienst
-Darin aufgeg.: Deutscher Büchereiverband: Kurzinformationen</t>
+    <t xml:space="preserve">Darin aufgeg.: Deutscher Büchereiverband: Kurzinformationen
+Vorg.: Büchereidienst</t>
   </si>
   <si>
     <t xml:space="preserve">046829962</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">381476669</t>
   </si>
   <si>
-    <t xml:space="preserve">Vorausgabe: Rettungsdienst heute. - ISBN 9783437461934</t>
+    <t xml:space="preserve">Vorausgegangen ist: Rettungsdienst heute. - ISBN 9783437461934</t>
   </si>
   <si>
     <t xml:space="preserve">780 mit $t $d + 040 $e = rda, ohne $a</t>
@@ -2917,7 +2917,7 @@
     <t xml:space="preserve">2x 020 $a</t>
   </si>
   <si>
-    <t xml:space="preserve">9782070451609 ; 2070451607</t>
+    <t xml:space="preserve">2070451607 ; 9782070451609</t>
   </si>
   <si>
     <t xml:space="preserve">2x 020 $a + 1x 020 $z</t>
@@ -2926,7 +2926,7 @@
     <t xml:space="preserve">312333870</t>
   </si>
   <si>
-    <t xml:space="preserve">9783861432036 ; 9783861432039 ; 386143203X</t>
+    <t xml:space="preserve">386143203X ; 9783861432036 ; 9783861432039</t>
   </si>
   <si>
     <t xml:space="preserve">020 $a mit Sekundärausgabe</t>
@@ -3030,7 +3030,7 @@
     <t xml:space="preserve">344651460</t>
   </si>
   <si>
-    <t xml:space="preserve">9790004341254 ; 9790004341261 ; 9790004341278 ; 9790004341285 ; 9790004341247</t>
+    <t xml:space="preserve">9790004341247 ; 9790004341254 ; 9790004341261 ; 9790004341278 ; 9790004341285</t>
   </si>
   <si>
     <t xml:space="preserve">024 $a mit Indikator 1 = 3</t>
@@ -3884,6 +3884,7 @@
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">于阳 </t>
     </r>
@@ -3931,6 +3932,7 @@
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">郭道晖 </t>
     </r>
@@ -3950,6 +3952,7 @@
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">刘永艳 </t>
     </r>
@@ -3994,6 +3997,7 @@
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">北京 </t>
     </r>
@@ -4013,6 +4017,7 @@
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当代中国出版社</t>
     </r>
@@ -4060,6 +4065,7 @@
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">江湖中国 </t>
     </r>
@@ -4079,6 +4085,7 @@
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个非正式制度在中国的起因 </t>
     </r>
@@ -4098,6 +4105,7 @@
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">于阳著</t>
     </r>
@@ -4823,11 +4831,11 @@
     <t xml:space="preserve">104075848</t>
   </si>
   <si>
-    <t xml:space="preserve">Spinoza, Benedictus _x0098_de
-Geschichte Anfänge -1800
+    <t xml:space="preserve">Spinoza, Benedictus de
 Rezeption
 Deutschland
-Aufsatzsammlung</t>
+Aufsatzsammlung
+Geschichte Anfänge -1800</t>
   </si>
   <si>
     <t xml:space="preserve">610 $a $b $g $b $b</t>
@@ -4837,10 +4845,9 @@
   </si>
   <si>
     <t xml:space="preserve">Universitätsbibliothek Heidelberg / Salem &lt;Bodenseekreis&gt; / Kloster / Bibliothek
-Geschichte 1500-1900
 Handschrift
 Katalog
-</t>
+Geschichte 1500-1900</t>
   </si>
   <si>
     <t xml:space="preserve">Kleist, Heinrich von
@@ -4869,14 +4876,31 @@
     <t xml:space="preserve">04567986X</t>
   </si>
   <si>
-    <t xml:space="preserve">Karl V. &lt;Heiliges Römisches Reich, Kaiser&gt;
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Karl V. &lt;Heiliges Römisches Reich, Kaiser&gt;
 Valdivia, Pedro de
-Geschichte 1500-1554
 Chile, Eroberung
 Chile
 Briefsammlung
 Quelle
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Geschichte 1500-1554</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">650 mit @</t>
@@ -5735,14 +5759,14 @@
   </si>
   <si>
     <t xml:space="preserve">Flowering plants volumes
-Vol. 16. Fabaceae / ed. by O. A. Leistner ...
-Pt. 2 / ed. by J. H. Ross</t>
+Vol. 16. Fabaceae  / ed. by O. A. Leistner ...
+Pt. 2  / ed. by J. H. Ross</t>
   </si>
   <si>
     <t xml:space="preserve">Leader Pos. 19 = c mit 245</t>
   </si>
   <si>
-    <t xml:space="preserve">Reihe A. Die Porträtsammlung der Herzog-August-Bibliothek Wolfenbüttel / bearb. von Peter Mortzfeld
+    <t xml:space="preserve">Reihe A. Die Porträtsammlung der Herzog-August-Bibliothek Wolfenbüttel  / bearb. von Peter Mortzfeld
 Bd. 17. Abbildungen Nas - Pao</t>
   </si>
   <si>
@@ -5972,64 +5996,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Jiang hu Zhong guo : yi ge fei zheng shi zhi du zai Zhong guo de qi yin / Yu Yang zhu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">江湖中国 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">一个非正式制度在中国的起因 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">于阳著</t>
-    </r>
+    <t xml:space="preserve">Jiang hu Zhong guo : yi ge fei zheng shi zhi du zai Zhong guo de qi yin / Yu Yang zhu</t>
   </si>
   <si>
     <t xml:space="preserve">Jiang hu Zhong guo : yi ge fei zheng shi zhi du zai Zhong guo de qi yin</t>
@@ -6490,6 +6457,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Yu, Yang (Verfasser)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6498,41 +6468,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Yu, Yang (Verfasser)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">于阳 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Verfasser)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu, Yang (Verfasser)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">100 und 700 mit Originalschrift in 880
 </t>
     </r>
@@ -6548,55 +6483,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Guo, Daohui (Verfasser); Liu, Yongyan (Verfasser)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">郭道晖 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Verfasser); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">刘永艳 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Verfasser)</t>
-    </r>
+    <t xml:space="preserve">Guo, Daohui (Verfasser); Liu, Yongyan (Verfasser)</t>
   </si>
   <si>
     <t xml:space="preserve">Guo, Daohui (Verfasser)</t>
@@ -6708,57 +6595,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bei jing : Dang dai zhong guo chu ban she, 2016
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">北京 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">当代中国出版社</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 2016</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Bei jing : Dang dai zhong guo chu ban she, 2016</t>
   </si>
   <si>
@@ -6983,7 +6819,7 @@
     <t xml:space="preserve">120323435</t>
   </si>
   <si>
-    <t xml:space="preserve">Stuttgart : Belser, [19]89. - 6 Mikrofiches. - (Edition Corvey : Deutschsprachige Belletristik)</t>
+    <t xml:space="preserve">Stuttgart : Belser, 1989, [19]89. - 6 Mikrofiches. - (Edition Corvey : Deutschsprachige Belletristik)</t>
   </si>
   <si>
     <t xml:space="preserve">530 $a + 533 $b - $e</t>
@@ -7493,7 +7329,7 @@
     <t xml:space="preserve">381940063</t>
   </si>
   <si>
-    <t xml:space="preserve">Ab 10 Jahren</t>
+    <t xml:space="preserve">Kind, 10-12 Jahre</t>
   </si>
   <si>
     <t xml:space="preserve">RecordFinder</t>
@@ -7541,7 +7377,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7659,6 +7495,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -8273,15 +8116,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.0279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5720930232558"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.7209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.7860465116279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.4558139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.893023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="26" min="8" style="0" width="9.45116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.8372093023256"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.2232558139535"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="26" min="8" style="0" width="10.3720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9158,18 +9001,18 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.9488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.2418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.6372093023256"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.3302325581395"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.3627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.7581395348837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9582,7 +9425,7 @@
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="44" t="s">
         <v>307</v>
       </c>
@@ -9624,7 +9467,7 @@
       <c r="E38" s="48"/>
       <c r="F38" s="49"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="44" t="s">
         <v>314</v>
       </c>
@@ -9638,7 +9481,7 @@
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="44" t="s">
         <v>317</v>
       </c>
@@ -9693,11 +9536,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1720930232558"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0186046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.8790697674419"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.293023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.7395348837209"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9942,11 +9785,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5860465116279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.6046511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10134,12 +9977,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.5395348837209"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.3953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.493023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10451,12 +10294,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7302325581395"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.4046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8651162790698"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2232558139535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.2651162790698"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8837209302326"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.1488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10860,18 +10703,18 @@
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.1116279069767"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.6046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1720930232558"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2790697674419"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.2325581395349"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11046,7 +10889,7 @@
       <c r="E15" s="36"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>407</v>
       </c>
@@ -11060,7 +10903,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
         <v>409</v>
       </c>
@@ -11156,17 +10999,17 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9255813953488"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.353488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.1255813953488"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11343,7 +11186,7 @@
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>429</v>
       </c>
@@ -11418,11 +11261,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7302325581395"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4651162790698"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2232558139535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9581395348837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,18 +11524,18 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.2651162790698"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8651162790698"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.7488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.1488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12283,17 +12126,17 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4837209302326"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1720930232558"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2790697674419"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12444,8 +12287,10 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="44" t="s">
+        <v>519</v>
+      </c>
       <c r="B14" s="45" t="s">
         <v>521</v>
       </c>
@@ -12456,8 +12301,10 @@
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="44" t="s">
+        <v>519</v>
+      </c>
       <c r="B15" s="45" t="s">
         <v>523</v>
       </c>
@@ -12494,11 +12341,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9906976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.0139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.4046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4837209302326"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.2651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13112,11 +12959,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.5302325581395"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.1441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.6"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13341,11 +13188,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.7255813953488"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.3627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.6325581395349"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13556,9 +13403,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.4697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13760,18 +13607,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0325581395349"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13938,19 +13785,20 @@
       <c r="E14" s="48"/>
       <c r="F14" s="49"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="78" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="37.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="78" t="s">
         <v>551</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B17" s="79" t="s">
         <v>552</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="81" t="s">
         <v>553</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="82"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="82"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13976,11 +13824,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.9255813953488"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.846511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5116279069767"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1255813953488"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14179,18 +14027,18 @@
   </sheetPr>
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7302325581395"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.153488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.4558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2232558139535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.5767441860465"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14827,7 +14675,7 @@
       <c r="E53" s="36"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="61.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="58" t="s">
         <v>637</v>
       </c>
@@ -14861,7 +14709,7 @@
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="61.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="58" t="s">
         <v>640</v>
       </c>
@@ -14963,7 +14811,7 @@
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="85.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="58" t="s">
         <v>619</v>
       </c>
@@ -15169,13 +15017,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1069767441861"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.353488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.9255813953488"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4372093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1116279069767"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.2279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9581395348837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2232558139535"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16210,11 +16058,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4651162790698"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9581395348837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16412,20 +16260,20 @@
   </sheetPr>
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.153488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.4046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.6790697674419"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.0744186046512"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="9.45116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7767441860465"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.2651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.9116279069767"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2558139534884"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.3720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16938,18 +16786,18 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.8558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.7488372093023"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5441860465116"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.6046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17836,7 +17684,7 @@
       <c r="Y27" s="89"/>
       <c r="Z27" s="89"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="44" t="s">
         <v>835</v>
       </c>
@@ -17881,11 +17729,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2186046511628"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.2883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.0511627906977"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18074,14 +17922,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1906976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6976744186047"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8093023255814"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="9.45116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.9116279069767"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7767441860465"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.4558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.1720930232558"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.3720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19536,10 +19384,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="25.0697674418605"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19809,14 +19657,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.153488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5720930232558"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.9953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5488372093023"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.2837209302326"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="9.45116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5162790697674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5860465116279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8186046511628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.9116279069767"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.646511627907"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.3720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20321,18 +20169,18 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9255813953488"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.8790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.6046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1255813953488"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.753488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.7395348837209"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20723,7 +20571,7 @@
       </c>
       <c r="F30" s="49"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="26.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="44" t="s">
         <v>922</v>
       </c>
@@ -20735,23 +20583,23 @@
         <v>923</v>
       </c>
       <c r="E31" s="48" t="s">
+        <v>923</v>
+      </c>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="44" t="s">
         <v>924</v>
-      </c>
-      <c r="F31" s="49"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="44" t="s">
-        <v>925</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>536</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="E32" s="48" t="s">
         <v>926</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>927</v>
       </c>
       <c r="F32" s="49"/>
     </row>
@@ -20777,18 +20625,18 @@
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.6139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.7348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8651162790698"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.0186046511628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.1488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20796,7 +20644,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -20808,7 +20656,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -20884,10 +20732,10 @@
         <v>165</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>930</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>931</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -20898,7 +20746,7 @@
         <v>168</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -20919,10 +20767,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>933</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>934</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -20984,10 +20832,10 @@
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F17" s="24"/>
     </row>
@@ -21000,10 +20848,10 @@
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22" t="s">
+        <v>935</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>936</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>937</v>
       </c>
       <c r="F18" s="24"/>
     </row>
@@ -21016,10 +20864,10 @@
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F19" s="24"/>
     </row>
@@ -21037,39 +20885,39 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B21" s="45" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>940</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>941</v>
       </c>
       <c r="F21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>942</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>943</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>944</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>945</v>
       </c>
       <c r="F22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B23" s="45" t="s">
         <v>128</v>
@@ -21077,7 +20925,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="63"/>
@@ -21101,19 +20949,19 @@
       <c r="Y23" s="63"/>
       <c r="Z23" s="63"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="26.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>533</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="47" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F24" s="49"/>
     </row>
@@ -21145,11 +20993,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6232558139535"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.1674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21157,7 +21005,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -21169,7 +21017,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -21245,7 +21093,7 @@
         <v>165</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>326</v>
@@ -21259,7 +21107,7 @@
         <v>168</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -21271,7 +21119,7 @@
         <v>170</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -21326,42 +21174,42 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="47" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="47" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="47" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="49"/>
@@ -21388,16 +21236,16 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="50.6697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.5767441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="55.6558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21405,7 +21253,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -21417,7 +21265,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -21429,7 +21277,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -21493,10 +21341,10 @@
         <v>106</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -21504,10 +21352,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -21516,10 +21364,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -21528,7 +21376,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>593</v>
@@ -21540,7 +21388,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>49</v>
@@ -21552,7 +21400,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>729</v>
@@ -21564,10 +21412,10 @@
     </row>
     <row r="15" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="3"/>
@@ -21620,16 +21468,16 @@
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="40" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="42"/>
@@ -21666,56 +21514,56 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="47" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="44" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="47" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="49"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="44" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="47" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="49"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -21749,12 +21597,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1069767441861"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.4697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4372093023256"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.1674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9023255813954"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21762,7 +21610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -21774,7 +21622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -21786,7 +21634,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -21853,7 +21701,7 @@
         <v>306</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -21861,10 +21709,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
@@ -21873,10 +21721,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="31" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3"/>
@@ -21885,7 +21733,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>701</v>
@@ -21897,10 +21745,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="31" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="3"/>
@@ -21909,10 +21757,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="3"/>
@@ -21921,10 +21769,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="31" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="3"/>
@@ -21933,10 +21781,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="31" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="3"/>
@@ -21945,10 +21793,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="31" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="3"/>
@@ -21957,10 +21805,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="31" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="3"/>
@@ -21969,7 +21817,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>612</v>
@@ -21981,10 +21829,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="31" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="3"/>
@@ -21993,10 +21841,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="3"/>
@@ -22005,7 +21853,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="31" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>701</v>
@@ -22017,10 +21865,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="31" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="3"/>
@@ -22029,10 +21877,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="31" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="3"/>
@@ -22041,10 +21889,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="31" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
@@ -22053,10 +21901,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
@@ -22065,10 +21913,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="3"/>
@@ -22077,10 +21925,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="31" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="3"/>
@@ -22089,7 +21937,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="31" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>612</v>
@@ -22101,10 +21949,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="31" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -22112,7 +21960,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="31" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>701</v>
@@ -22123,10 +21971,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="31" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -22134,10 +21982,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="31" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -22145,7 +21993,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="31" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>701</v>
@@ -22156,10 +22004,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="31" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -22167,10 +22015,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="31" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -22178,10 +22026,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="31" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -22189,10 +22037,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="31" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -22200,10 +22048,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="31" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -22211,10 +22059,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="31" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -22222,7 +22070,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="31" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>612</v>
@@ -22233,10 +22081,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="31" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -22244,10 +22092,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="31" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -22255,7 +22103,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>701</v>
@@ -22266,10 +22114,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="31" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -22277,10 +22125,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -22288,10 +22136,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -22299,10 +22147,10 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="31" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -22310,10 +22158,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="31" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -22321,10 +22169,10 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="31" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -22332,7 +22180,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="31" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>612</v>
@@ -22343,10 +22191,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="31" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -22354,10 +22202,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="31" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -22376,10 +22224,10 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="31" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -22387,10 +22235,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="31" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -22401,7 +22249,7 @@
         <v>476</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -22409,10 +22257,10 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="31" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -22420,10 +22268,10 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="31" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -22431,10 +22279,10 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="31" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -22442,7 +22290,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="31" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B61" s="32" t="s">
         <v>612</v>
@@ -22453,10 +22301,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="31" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -22464,10 +22312,10 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="31" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -22486,10 +22334,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -22497,10 +22345,10 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -22511,7 +22359,7 @@
         <v>481</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -22519,10 +22367,10 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -22530,10 +22378,10 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -22541,10 +22389,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -22552,7 +22400,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>612</v>
@@ -22609,112 +22457,112 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="44" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C76" s="46"/>
       <c r="D76" s="47" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E76" s="48"/>
       <c r="F76" s="49"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="44" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C77" s="46"/>
       <c r="D77" s="47" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E77" s="48"/>
       <c r="F77" s="49"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="44" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C78" s="46"/>
       <c r="D78" s="47" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E78" s="48"/>
       <c r="F78" s="49"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="44" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C79" s="46"/>
       <c r="D79" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E79" s="48"/>
       <c r="F79" s="49"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="44" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C80" s="46"/>
       <c r="D80" s="47" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E80" s="48"/>
       <c r="F80" s="49"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="44" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C81" s="46"/>
       <c r="D81" s="47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E81" s="48"/>
       <c r="F81" s="49"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="44" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C82" s="46"/>
       <c r="D82" s="47" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E82" s="48"/>
       <c r="F82" s="49"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="44" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C83" s="46"/>
       <c r="D83" s="47" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E83" s="48"/>
       <c r="F83" s="49"/>
@@ -22742,16 +22590,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5395348837209"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2232558139535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22759,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -22771,7 +22619,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -22783,7 +22631,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -22844,13 +22692,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>1085</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1087</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -22858,10 +22706,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -22916,42 +22764,42 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
@@ -22984,10 +22832,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.3395348837209"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9488372093023"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.0325581395349"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.2279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22995,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -23005,7 +22853,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -23067,9 +22915,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5860465116279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5720930232558"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.6046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1162790697674"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23308,14 +23156,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2837209302326"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.5906976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.5488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.6790697674419"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5488372093023"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="9.45116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.646511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.0139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.9116279069767"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.3720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25125,16 +24973,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8651162790698"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.1767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9255813953488"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.9023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.1255813953488"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25309,7 +25157,7 @@
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
         <v>172</v>
       </c>
@@ -25323,7 +25171,7 @@
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="s">
         <v>172</v>
       </c>
@@ -25364,9 +25212,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.9302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25613,11 +25461,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6976744186047"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3720930232558"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4558139534884"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25821,12 +25669,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1720930232558"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0186046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7581395348837"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="16.5395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.6651162790698"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.1023255813954"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.1162790697674"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
